--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-goal-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -582,7 +582,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -772,7 +772,7 @@
     <t>The parameter whose value is being tracked, e.g. body weight, blood pressure, or hemoglobin A1c level.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures</t>
   </si>
   <si>
     <t>Goal.target.detail[x]</t>
@@ -878,7 +878,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
@@ -1310,7 +1310,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,13 +576,25 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcome category</t>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+  </si>
+  <si>
+    <t>Goal.category:domainCategory</t>
+  </si>
+  <si>
+    <t>domainCategory</t>
+  </si>
+  <si>
+    <t>Person-Centered Outcome domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -878,11 +890,11 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(Condition|Observation|RiskAssessment)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Condition</t>
+    <t>Issues addressed by this goal</t>
   </si>
   <si>
     <t>The identified conditions and other health record elements that are intended to be addressed by the goal.</t>
@@ -891,10 +903,30 @@
     <t>Allows specific goals to explicitly linked to the concerns they're dealing with - makes the goal more understandable.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=SUBJ].target[classCode=CONC]</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Goal.addresses:SupportedAddresses</t>
+  </si>
+  <si>
+    <t>SupportedAddresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+</t>
+  </si>
+  <si>
+    <t>What Matters Assessment or Statement</t>
+  </si>
+  <si>
+    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>
@@ -1276,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1285,9 +1317,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.3515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.12109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1310,7 +1342,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2789,7 +2821,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2900,10 +2932,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>87</v>
@@ -2952,11 +2984,9 @@
       <c r="X15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3000,12 +3030,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3014,10 +3046,10 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
@@ -3032,13 +3064,11 @@
         <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3066,10 +3096,10 @@
         <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3087,13 +3117,13 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
@@ -3105,18 +3135,18 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3124,13 +3154,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3142,16 +3172,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3176,13 +3206,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3200,10 +3230,10 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3215,21 +3245,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3252,17 +3282,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3287,13 +3319,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3311,7 +3343,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3326,21 +3358,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3363,17 +3395,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3422,10 +3454,10 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3437,21 +3469,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3471,22 +3503,20 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3535,19 +3565,19 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -3556,15 +3586,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3572,13 +3602,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -3587,16 +3617,20 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3644,25 +3678,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3670,21 +3704,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3696,17 +3730,15 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3761,19 +3793,19 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3781,14 +3813,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3801,26 +3833,24 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3868,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3886,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3894,33 +3924,33 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>240</v>
@@ -3928,8 +3958,12 @@
       <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3953,47 +3987,49 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4018,7 +4054,7 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4027,17 +4063,15 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4062,26 +4096,26 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>243</v>
@@ -4093,7 +4127,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4110,14 +4144,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4129,7 +4161,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4138,16 +4170,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4176,7 +4208,7 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4185,19 +4217,17 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4206,7 +4236,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4223,18 +4253,20 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4249,18 +4281,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4284,10 +4316,10 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4308,7 +4340,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4317,7 +4349,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4329,15 +4361,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4351,7 +4383,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4360,18 +4392,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4419,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4440,15 +4472,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4468,19 +4500,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4530,7 +4562,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4551,7 +4583,7 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -4573,25 +4605,25 @@
         <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4662,15 +4694,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4681,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4690,21 +4722,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4752,13 +4784,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4770,18 +4802,18 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4804,19 +4836,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4853,19 +4883,17 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4880,23 +4908,25 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4908,7 +4938,7 @@
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>76</v>
@@ -4917,19 +4947,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4954,13 +4982,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4978,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4996,18 +5024,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5030,19 +5058,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5091,7 +5119,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5106,17 +5134,243 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
     </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM34">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5126,7 +5380,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,7 +576,7 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered category</t>
+    <t>Person-Centered Goal category</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
@@ -2821,13 +2821,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,28 +570,30 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pcoCategory</t>
-  </si>
-  <si>
-    <t>pcoCategory</t>
+    <t>Goal.category:pco-goal</t>
+  </si>
+  <si>
+    <t>pco-goal</t>
   </si>
   <si>
     <t>Person-Centered Goal category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
-  </si>
-  <si>
-    <t>Goal.category:domainCategory</t>
-  </si>
-  <si>
-    <t>domainCategory</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
+    &lt;code value="person-centered-goal"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Goal.category:goal-domain</t>
+  </si>
+  <si>
+    <t>goal-domain</t>
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -1341,7 +1343,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2821,7 +2823,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -2967,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>76</v>
@@ -2982,11 +2984,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3095,11 +3099,9 @@
       <c r="X16" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3143,10 +3145,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3172,16 +3174,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3209,11 +3211,11 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3248,18 +3250,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3285,16 +3287,16 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3319,14 +3321,14 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3358,21 +3360,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3395,17 +3397,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3456,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3469,21 +3471,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3506,17 +3508,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3565,7 +3567,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3586,15 +3588,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3617,19 +3619,19 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3680,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3687,10 +3689,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3704,10 +3706,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3730,13 +3732,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3787,7 +3789,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3805,7 +3807,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3813,10 +3815,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,7 +3847,7 @@
         <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
@@ -3898,7 +3900,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3916,7 +3918,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3924,14 +3926,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3953,10 +3955,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -4011,7 +4013,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4037,10 +4039,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4066,10 +4068,10 @@
         <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4096,11 +4098,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4118,7 +4120,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4129,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4144,10 +4146,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4170,16 +4172,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4208,26 +4210,26 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4236,7 +4238,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4253,13 +4255,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
@@ -4281,16 +4283,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4319,7 +4321,7 @@
         <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4340,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4349,7 +4351,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4366,10 +4368,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4392,17 +4394,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4451,7 +4453,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4472,15 +4474,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4503,16 +4505,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4562,7 +4564,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4583,15 +4585,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4614,16 +4616,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4673,7 +4675,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4699,10 +4701,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4725,16 +4727,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4784,7 +4786,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4805,15 +4807,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4836,17 +4838,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4883,7 +4885,7 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -4893,7 +4895,7 @@
         <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4911,21 +4913,21 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -4947,17 +4949,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5006,7 +5008,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5024,18 +5026,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5058,19 +5060,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5119,7 +5121,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5134,10 +5136,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5145,10 +5147,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5174,16 +5176,16 @@
         <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5211,11 +5213,11 @@
         <v>172</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5258,10 +5260,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5284,19 +5286,19 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="O36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5345,7 +5347,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -560,7 +560,7 @@
     <t>http://hl7.org/fhir/ValueSet/goal-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -570,21 +570,19 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-goal</t>
-  </si>
-  <si>
-    <t>pco-goal</t>
-  </si>
-  <si>
-    <t>Person-Centered Goal category</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
-    &lt;code value="person-centered-goal"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Goal.category:pco-category</t>
+  </si>
+  <si>
+    <t>pco-category</t>
+  </si>
+  <si>
+    <t>Person-Centered category</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -641,9 +639,6 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -2823,7 +2818,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -2934,7 +2929,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -2969,28 +2964,26 @@
         <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3034,13 +3027,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3065,7 +3058,7 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>170</v>
@@ -3101,7 +3094,7 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3145,10 +3138,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3174,16 +3167,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3211,10 +3204,10 @@
         <v>110</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3232,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3250,18 +3243,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3287,16 +3280,16 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3321,7 +3314,7 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>201</v>
@@ -3345,7 +3338,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -4098,7 +4091,7 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,9 +579,6 @@
     <t>Person-Centered category</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome domain category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Without a description of what's trying to be achieved, element has no purpose.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Value set to describe the Goal</t>
@@ -1338,7 +1341,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2979,11 +2982,11 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3027,13 +3030,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3058,7 +3061,7 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>170</v>
@@ -3090,9 +3093,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z16" t="s" s="2">
         <v>186</v>
       </c>
@@ -3314,13 +3319,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3353,21 +3358,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3390,17 +3395,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3449,7 +3454,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3464,21 +3469,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3501,17 +3506,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3560,7 +3565,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3581,15 +3586,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3612,19 +3617,19 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3673,7 +3678,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3682,10 +3687,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3699,10 +3704,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3725,13 +3730,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3782,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3800,7 +3805,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3808,10 +3813,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3840,7 +3845,7 @@
         <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>135</v>
@@ -3893,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3911,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3919,14 +3924,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3948,10 +3953,10 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -4006,7 +4011,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4032,10 +4037,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4061,10 +4066,10 @@
         <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4091,11 +4096,11 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4113,7 +4118,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4122,7 +4127,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4139,10 +4144,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4165,16 +4170,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4203,7 +4208,7 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4212,17 +4217,17 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4231,7 +4236,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4248,13 +4253,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
@@ -4276,16 +4281,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4314,7 +4319,7 @@
         <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4340,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4344,7 +4349,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4361,10 +4366,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4387,17 +4392,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4446,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4467,15 +4472,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4498,16 +4503,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4557,7 +4562,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4578,15 +4583,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4609,16 +4614,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4668,7 +4673,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4694,10 +4699,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4720,16 +4725,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4779,7 +4784,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4800,15 +4805,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4831,17 +4836,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4878,7 +4883,7 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -4888,7 +4893,7 @@
         <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4906,21 +4911,21 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>76</v>
@@ -4942,17 +4947,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5001,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5019,18 +5024,18 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5053,19 +5058,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5114,7 +5119,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5129,10 +5134,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5140,10 +5145,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5169,16 +5174,16 @@
         <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5206,10 +5211,10 @@
         <v>172</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5227,7 +5232,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5253,10 +5258,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5279,19 +5284,19 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5340,7 +5345,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:pco-category</t>
-  </si>
-  <si>
-    <t>pco-category</t>
-  </si>
-  <si>
-    <t>Person-Centered category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-vs</t>
+    <t>Goal.category:what-matters</t>
+  </si>
+  <si>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters observation category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -588,13 +588,13 @@
     <t>goal-domain</t>
   </si>
   <si>
-    <t>Person-Centered Outcome domain category</t>
+    <t>Person-Centered Outcome goal domain category</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-domain-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-goal-domains-example-vs</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -919,11 +919,11 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-statement)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Statement</t>
+    <t>What Matters Assessment or Priority</t>
   </si>
   <si>
     <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
@@ -1342,7 +1342,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:what-matters</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters observation category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-vs</t>
+    <t>Goal.category:well-being</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -919,14 +919,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
 </t>
   </si>
   <si>
-    <t>What Matters Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses PCO what matters most observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment profiles. However, references to other instance types are also possible.</t>
+    <t>Well-Being Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,7 +579,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,16 +570,16 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Goal.category:well-being</t>
-  </si>
-  <si>
-    <t>well-being</t>
-  </si>
-  <si>
-    <t>Well-Being resource category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
+    <t>Goal.category:pco</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Person-Centered resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-categories</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -919,14 +919,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>Well-Being Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
+    <t>What Matters Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses What Matters observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-goal-profile.xlsx
+++ b/StructureDefinition-pco-prom-goal-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -919,7 +919,7 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment)
 </t>
   </si>
   <si>
